--- a/raw/swp/bulletin_132/B132-21 Tables.xlsx
+++ b/raw/swp/bulletin_132/B132-21 Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffh\OneDrive\Documents\UCDavis\data-surface-water\raw\swp\bulletin_132\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2BE9B9-2363-4BFA-8693-CD3B70100B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABFF098-4D69-425A-87FA-5CB7C4119777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19296" yWindow="3534" windowWidth="19392" windowHeight="10392" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contractors" sheetId="6" r:id="rId1"/>
@@ -858,6 +858,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -896,24 +914,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1199,14 +1199,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="11.4" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.83984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26171875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.15625" style="7"/>
+    <col min="1" max="1" width="57.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>83</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>84</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>86</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>87</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>88</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>89</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>90</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>91</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>92</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>93</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>94</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>95</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>96</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>97</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>98</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>99</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>100</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>101</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>102</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>103</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>104</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>105</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>106</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>107</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>108</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>109</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>110</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>111</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>112</v>
       </c>
@@ -1462,29 +1462,29 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="11.4" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="9.578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.41796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.41796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.578125" style="7" customWidth="1"/>
-    <col min="15" max="16" width="9.83984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="9.41796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.83984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="28" width="9.41796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.41796875" style="7" customWidth="1"/>
-    <col min="30" max="31" width="9.41796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.41796875" style="7" customWidth="1"/>
-    <col min="33" max="33" width="9.41796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.83984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="38" width="9.41796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.41796875" style="7" customWidth="1"/>
-    <col min="40" max="40" width="10.83984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.15625" style="7"/>
+    <col min="1" max="7" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="7" customWidth="1"/>
+    <col min="15" max="16" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="28" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" style="7" customWidth="1"/>
+    <col min="30" max="31" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.42578125" style="7" customWidth="1"/>
+    <col min="33" max="33" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="38" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.42578125" style="7" customWidth="1"/>
+    <col min="40" max="40" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1507,16 +1507,16 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
@@ -1529,60 +1529,60 @@
       <c r="AN1" s="2"/>
       <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="57" t="s">
+    <row r="2" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="57" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="57" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="63" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="60" t="s">
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="63" t="s">
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="65"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="71"/>
       <c r="AM2" s="5"/>
       <c r="AO2" s="1"/>
     </row>
-    <row r="3" spans="1:41" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:41" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
         <v>1</v>
       </c>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="AO3" s="1"/>
     </row>
-    <row r="4" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="AO4" s="1"/>
     </row>
-    <row r="5" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="55">
         <v>1962</v>
       </c>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="AO5" s="1"/>
     </row>
-    <row r="6" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>1963</v>
       </c>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="AO6" s="1"/>
     </row>
-    <row r="7" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>1964</v>
       </c>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="AO7" s="1"/>
     </row>
-    <row r="8" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>1965</v>
       </c>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="AO8" s="1"/>
     </row>
-    <row r="9" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>1966</v>
       </c>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="AO9" s="1"/>
     </row>
-    <row r="10" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>1967</v>
       </c>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="AO10" s="1"/>
     </row>
-    <row r="11" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>1968</v>
       </c>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="AO11" s="1"/>
     </row>
-    <row r="12" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>1969</v>
       </c>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="AO12" s="1"/>
     </row>
-    <row r="13" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>1970</v>
       </c>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="AO13" s="1"/>
     </row>
-    <row r="14" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>1971</v>
       </c>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="AO14" s="1"/>
     </row>
-    <row r="15" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>1972</v>
       </c>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="AO15" s="1"/>
     </row>
-    <row r="16" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>1973</v>
       </c>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="AO16" s="1"/>
     </row>
-    <row r="17" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>1974</v>
       </c>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="AO17" s="1"/>
     </row>
-    <row r="18" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>1975</v>
       </c>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="AO18" s="1"/>
     </row>
-    <row r="19" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>1976</v>
       </c>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="AO19" s="1"/>
     </row>
-    <row r="20" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>1977</v>
       </c>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="AO20" s="1"/>
     </row>
-    <row r="21" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>1978</v>
       </c>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="AO21" s="1"/>
     </row>
-    <row r="22" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>1979</v>
       </c>
@@ -4039,7 +4039,7 @@
       </c>
       <c r="AO22" s="1"/>
     </row>
-    <row r="23" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>1980</v>
       </c>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="AO23" s="1"/>
     </row>
-    <row r="24" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>1981</v>
       </c>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="AO24" s="1"/>
     </row>
-    <row r="25" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>1982</v>
       </c>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="AO25" s="1"/>
     </row>
-    <row r="26" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>1983</v>
       </c>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="AO26" s="1"/>
     </row>
-    <row r="27" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>1984</v>
       </c>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="AO27" s="1"/>
     </row>
-    <row r="28" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>1985</v>
       </c>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="AO28" s="1"/>
     </row>
-    <row r="29" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>1986</v>
       </c>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="AO29" s="1"/>
     </row>
-    <row r="30" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>1987</v>
       </c>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="AO30" s="1"/>
     </row>
-    <row r="31" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <v>1988</v>
       </c>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="AO31" s="1"/>
     </row>
-    <row r="32" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
         <v>1989</v>
       </c>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="AO32" s="1"/>
     </row>
-    <row r="33" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
         <v>1990</v>
       </c>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="AO33" s="1"/>
     </row>
-    <row r="34" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="21">
         <v>1991</v>
       </c>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="AO34" s="1"/>
     </row>
-    <row r="35" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="21">
         <v>1992</v>
       </c>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="AO35" s="1"/>
     </row>
-    <row r="36" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="21">
         <v>1993</v>
       </c>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="AO36" s="1"/>
     </row>
-    <row r="37" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="21">
         <v>1994</v>
       </c>
@@ -5884,7 +5884,7 @@
       </c>
       <c r="AO37" s="1"/>
     </row>
-    <row r="38" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="21">
         <v>1995</v>
       </c>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="AO38" s="1"/>
     </row>
-    <row r="39" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="21">
         <v>1996</v>
       </c>
@@ -6130,7 +6130,7 @@
       </c>
       <c r="AO39" s="1"/>
     </row>
-    <row r="40" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="21">
         <v>1997</v>
       </c>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="AO40" s="1"/>
     </row>
-    <row r="41" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="21">
         <v>1998</v>
       </c>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="AO41" s="1"/>
     </row>
-    <row r="42" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="21">
         <v>1999</v>
       </c>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="AO42" s="1"/>
     </row>
-    <row r="43" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="21">
         <v>2000</v>
       </c>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="AO43" s="1"/>
     </row>
-    <row r="44" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="21">
         <v>2001</v>
       </c>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="AO44" s="1"/>
     </row>
-    <row r="45" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
         <v>2002</v>
       </c>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AO45" s="1"/>
     </row>
-    <row r="46" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="21">
         <v>2003</v>
       </c>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="AO46" s="1"/>
     </row>
-    <row r="47" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="21">
         <v>2004</v>
       </c>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="AO47" s="1"/>
     </row>
-    <row r="48" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="21">
         <v>2005</v>
       </c>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="AO48" s="1"/>
     </row>
-    <row r="49" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
         <v>2006</v>
       </c>
@@ -7360,7 +7360,7 @@
       </c>
       <c r="AO49" s="1"/>
     </row>
-    <row r="50" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="21">
         <v>2007</v>
       </c>
@@ -7483,7 +7483,7 @@
       </c>
       <c r="AO50" s="1"/>
     </row>
-    <row r="51" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="21">
         <v>2008</v>
       </c>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="AO51" s="1"/>
     </row>
-    <row r="52" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="21">
         <v>2009</v>
       </c>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="AO52" s="1"/>
     </row>
-    <row r="53" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="21">
         <v>2010</v>
       </c>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="AO53" s="1"/>
     </row>
-    <row r="54" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="21">
         <v>2011</v>
       </c>
@@ -7975,7 +7975,7 @@
       </c>
       <c r="AO54" s="1"/>
     </row>
-    <row r="55" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="21">
         <v>2012</v>
       </c>
@@ -8098,7 +8098,7 @@
       </c>
       <c r="AO55" s="1"/>
     </row>
-    <row r="56" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="21">
         <v>2013</v>
       </c>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="AO56" s="1"/>
     </row>
-    <row r="57" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="21">
         <v>2014</v>
       </c>
@@ -8344,7 +8344,7 @@
       </c>
       <c r="AO57" s="1"/>
     </row>
-    <row r="58" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="21">
         <v>2015</v>
       </c>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="AO58" s="1"/>
     </row>
-    <row r="59" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="21">
         <v>2016</v>
       </c>
@@ -8590,7 +8590,7 @@
       </c>
       <c r="AO59" s="1"/>
     </row>
-    <row r="60" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="21">
         <v>2017</v>
       </c>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="AO60" s="1"/>
     </row>
-    <row r="61" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="21">
         <v>2018</v>
       </c>
@@ -8836,7 +8836,7 @@
       </c>
       <c r="AO61" s="1"/>
     </row>
-    <row r="62" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="21">
         <v>2019</v>
       </c>
@@ -8959,7 +8959,7 @@
       </c>
       <c r="AO62" s="1"/>
     </row>
-    <row r="63" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="21">
         <v>2020</v>
       </c>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="AO63" s="1"/>
     </row>
-    <row r="64" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="21">
         <v>2021</v>
       </c>
@@ -9205,7 +9205,7 @@
       </c>
       <c r="AO64" s="1"/>
     </row>
-    <row r="65" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="21">
         <v>2022</v>
       </c>
@@ -9328,7 +9328,7 @@
       </c>
       <c r="AO65" s="1"/>
     </row>
-    <row r="66" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="21">
         <v>2023</v>
       </c>
@@ -9451,7 +9451,7 @@
       </c>
       <c r="AO66" s="1"/>
     </row>
-    <row r="67" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="21">
         <v>2024</v>
       </c>
@@ -9574,7 +9574,7 @@
       </c>
       <c r="AO67" s="1"/>
     </row>
-    <row r="68" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="21">
         <v>2025</v>
       </c>
@@ -9697,7 +9697,7 @@
       </c>
       <c r="AO68" s="1"/>
     </row>
-    <row r="69" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="21">
         <v>2026</v>
       </c>
@@ -9820,7 +9820,7 @@
       </c>
       <c r="AO69" s="1"/>
     </row>
-    <row r="70" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="21">
         <v>2027</v>
       </c>
@@ -9943,7 +9943,7 @@
       </c>
       <c r="AO70" s="1"/>
     </row>
-    <row r="71" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="21">
         <v>2028</v>
       </c>
@@ -10066,7 +10066,7 @@
       </c>
       <c r="AO71" s="1"/>
     </row>
-    <row r="72" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="21">
         <v>2029</v>
       </c>
@@ -10189,7 +10189,7 @@
       </c>
       <c r="AO72" s="1"/>
     </row>
-    <row r="73" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="21">
         <v>2030</v>
       </c>
@@ -10312,7 +10312,7 @@
       </c>
       <c r="AO73" s="1"/>
     </row>
-    <row r="74" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="21">
         <v>2031</v>
       </c>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="AO74" s="1"/>
     </row>
-    <row r="75" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="21">
         <v>2032</v>
       </c>
@@ -10558,7 +10558,7 @@
       </c>
       <c r="AO75" s="1"/>
     </row>
-    <row r="76" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="21">
         <v>2033</v>
       </c>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="AO76" s="1"/>
     </row>
-    <row r="77" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="21">
         <v>2034</v>
       </c>
@@ -10804,7 +10804,7 @@
       </c>
       <c r="AO77" s="1"/>
     </row>
-    <row r="78" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="26">
         <v>2035</v>
       </c>
@@ -10927,7 +10927,7 @@
       </c>
       <c r="AO78" s="1"/>
     </row>
-    <row r="79" spans="1:41" ht="12.6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="31" t="s">
         <v>20</v>
       </c>
@@ -11050,7 +11050,7 @@
       </c>
       <c r="AO79" s="1"/>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>21</v>
       </c>
@@ -11074,7 +11074,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>22</v>
       </c>
@@ -11109,51 +11109,51 @@
   <dimension ref="A1:AO82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN50" sqref="AN50:AN63"/>
+      <selection pane="bottomRight" activeCell="S64" sqref="S64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="11.4" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.41796875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.83984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.68359375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.41796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.68359375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.41796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.41796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.41796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="7" customWidth="1"/>
-    <col min="15" max="15" width="12.68359375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.41796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.83984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.41796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="11.68359375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" style="7" customWidth="1"/>
-    <col min="25" max="25" width="11.41796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.15625" style="7" customWidth="1"/>
-    <col min="27" max="27" width="11.41796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.140625" style="7" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" style="7" customWidth="1"/>
-    <col min="29" max="29" width="12.15625" style="7" customWidth="1"/>
-    <col min="30" max="30" width="9.41796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.26171875" style="7" customWidth="1"/>
-    <col min="32" max="32" width="13.578125" style="7" customWidth="1"/>
-    <col min="33" max="33" width="9.26171875" style="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.68359375" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.41796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.26171875" style="7" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.83984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.83984375" style="7" customWidth="1"/>
-    <col min="40" max="40" width="13.578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.15625" style="7"/>
+    <col min="29" max="29" width="12.140625" style="7" customWidth="1"/>
+    <col min="30" max="30" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.28515625" style="7" customWidth="1"/>
+    <col min="32" max="32" width="13.5703125" style="7" customWidth="1"/>
+    <col min="33" max="33" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.85546875" style="7" customWidth="1"/>
+    <col min="40" max="40" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>81</v>
       </c>
@@ -11198,59 +11198,59 @@
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
     </row>
-    <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="63" t="s">
+    <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="63" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="63" t="s">
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="63" t="s">
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="67" t="s">
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="63" t="s">
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="65"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="71"/>
       <c r="AO2" s="2"/>
     </row>
-    <row r="3" spans="1:41" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:41" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
@@ -11373,7 +11373,7 @@
       </c>
       <c r="AO3" s="2"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="AO4" s="2"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1962</v>
       </c>
@@ -11616,7 +11616,7 @@
       </c>
       <c r="AO5" s="2"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>1963</v>
       </c>
@@ -11739,7 +11739,7 @@
       </c>
       <c r="AO6" s="2"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>1964</v>
       </c>
@@ -11862,7 +11862,7 @@
       </c>
       <c r="AO7" s="2"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>1965</v>
       </c>
@@ -11985,7 +11985,7 @@
       </c>
       <c r="AO8" s="2"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>1966</v>
       </c>
@@ -12108,7 +12108,7 @@
       </c>
       <c r="AO9" s="2"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>1967</v>
       </c>
@@ -12231,7 +12231,7 @@
       </c>
       <c r="AO10" s="2"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>1968</v>
       </c>
@@ -12354,7 +12354,7 @@
       </c>
       <c r="AO11" s="2"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>1969</v>
       </c>
@@ -12477,7 +12477,7 @@
       </c>
       <c r="AO12" s="2"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>1970</v>
       </c>
@@ -12600,7 +12600,7 @@
       </c>
       <c r="AO13" s="2"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>1971</v>
       </c>
@@ -12723,7 +12723,7 @@
       </c>
       <c r="AO14" s="2"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>1972</v>
       </c>
@@ -12846,7 +12846,7 @@
       </c>
       <c r="AO15" s="2"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>1973</v>
       </c>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="AO16" s="2"/>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>1974</v>
       </c>
@@ -13092,7 +13092,7 @@
       </c>
       <c r="AO17" s="2"/>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>1975</v>
       </c>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="AO18" s="2"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>1976</v>
       </c>
@@ -13338,7 +13338,7 @@
       </c>
       <c r="AO19" s="2"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>1977</v>
       </c>
@@ -13461,7 +13461,7 @@
       </c>
       <c r="AO20" s="2"/>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>1978</v>
       </c>
@@ -13584,7 +13584,7 @@
       </c>
       <c r="AO21" s="2"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>1979</v>
       </c>
@@ -13707,7 +13707,7 @@
       </c>
       <c r="AO22" s="2"/>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>1980</v>
       </c>
@@ -13830,7 +13830,7 @@
       </c>
       <c r="AO23" s="2"/>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>1981</v>
       </c>
@@ -13953,7 +13953,7 @@
       </c>
       <c r="AO24" s="2"/>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>1982</v>
       </c>
@@ -14076,7 +14076,7 @@
       </c>
       <c r="AO25" s="2"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>1983</v>
       </c>
@@ -14199,7 +14199,7 @@
       </c>
       <c r="AO26" s="2"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>1984</v>
       </c>
@@ -14322,7 +14322,7 @@
       </c>
       <c r="AO27" s="2"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>1985</v>
       </c>
@@ -14445,7 +14445,7 @@
       </c>
       <c r="AO28" s="2"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>1986</v>
       </c>
@@ -14568,7 +14568,7 @@
       </c>
       <c r="AO29" s="2"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>1987</v>
       </c>
@@ -14691,7 +14691,7 @@
       </c>
       <c r="AO30" s="2"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <v>1988</v>
       </c>
@@ -14814,7 +14814,7 @@
       </c>
       <c r="AO31" s="2"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
         <v>1989</v>
       </c>
@@ -14937,7 +14937,7 @@
       </c>
       <c r="AO32" s="2"/>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
         <v>1990</v>
       </c>
@@ -15060,7 +15060,7 @@
       </c>
       <c r="AO33" s="2"/>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" s="21">
         <v>1991</v>
       </c>
@@ -15183,7 +15183,7 @@
       </c>
       <c r="AO34" s="2"/>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" s="21">
         <v>1992</v>
       </c>
@@ -15306,7 +15306,7 @@
       </c>
       <c r="AO35" s="2"/>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" s="21">
         <v>1993</v>
       </c>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="AO36" s="2"/>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" s="21">
         <v>1994</v>
       </c>
@@ -15552,7 +15552,7 @@
       </c>
       <c r="AO37" s="2"/>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" s="21">
         <v>1995</v>
       </c>
@@ -15675,7 +15675,7 @@
       </c>
       <c r="AO38" s="2"/>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" s="21">
         <v>1996</v>
       </c>
@@ -15798,7 +15798,7 @@
       </c>
       <c r="AO39" s="2"/>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" s="21">
         <v>1997</v>
       </c>
@@ -15921,7 +15921,7 @@
       </c>
       <c r="AO40" s="2"/>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" s="21">
         <v>1998</v>
       </c>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="AO41" s="2"/>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" s="21">
         <v>1999</v>
       </c>
@@ -16167,7 +16167,7 @@
       </c>
       <c r="AO42" s="2"/>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" s="21">
         <v>2000</v>
       </c>
@@ -16290,7 +16290,7 @@
       </c>
       <c r="AO43" s="2"/>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" s="21">
         <v>2001</v>
       </c>
@@ -16413,7 +16413,7 @@
       </c>
       <c r="AO44" s="2"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
         <v>2002</v>
       </c>
@@ -16536,7 +16536,7 @@
       </c>
       <c r="AO45" s="2"/>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" s="21">
         <v>2003</v>
       </c>
@@ -16659,7 +16659,7 @@
       </c>
       <c r="AO46" s="2"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" s="21">
         <v>2004</v>
       </c>
@@ -16782,7 +16782,7 @@
       </c>
       <c r="AO47" s="2"/>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" s="21">
         <v>2005</v>
       </c>
@@ -16905,7 +16905,7 @@
       </c>
       <c r="AO48" s="2"/>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
         <v>2006</v>
       </c>
@@ -17028,7 +17028,7 @@
       </c>
       <c r="AO49" s="2"/>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" s="21">
         <v>2007</v>
       </c>
@@ -17151,7 +17151,7 @@
       </c>
       <c r="AO50" s="2"/>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" s="21">
         <v>2008</v>
       </c>
@@ -17274,7 +17274,7 @@
       </c>
       <c r="AO51" s="2"/>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" s="21">
         <v>2009</v>
       </c>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="AO52" s="2"/>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" s="21">
         <v>2010</v>
       </c>
@@ -17520,7 +17520,7 @@
       </c>
       <c r="AO53" s="2"/>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" s="21">
         <v>2011</v>
       </c>
@@ -17643,7 +17643,7 @@
       </c>
       <c r="AO54" s="2"/>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" s="21">
         <v>2012</v>
       </c>
@@ -17766,7 +17766,7 @@
       </c>
       <c r="AO55" s="2"/>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" s="21">
         <v>2013</v>
       </c>
@@ -17889,7 +17889,7 @@
       </c>
       <c r="AO56" s="2"/>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" s="21">
         <v>2014</v>
       </c>
@@ -18012,7 +18012,7 @@
       </c>
       <c r="AO57" s="2"/>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" s="21">
         <v>2015</v>
       </c>
@@ -18134,7 +18134,7 @@
         <v>1497970</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" s="21">
         <v>2016</v>
       </c>
@@ -18256,7 +18256,7 @@
         <v>2359869</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" s="21">
         <v>2017</v>
       </c>
@@ -18378,17 +18378,17 @@
         <v>3770284</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <v>2018</v>
       </c>
-      <c r="B61" s="70">
+      <c r="B61" s="57">
         <v>11682</v>
       </c>
-      <c r="C61" s="70">
+      <c r="C61" s="57">
         <v>35072</v>
       </c>
-      <c r="D61" s="71">
+      <c r="D61" s="58">
         <v>46754</v>
       </c>
       <c r="E61" s="22">
@@ -18400,7 +18400,7 @@
       <c r="G61" s="22">
         <v>121736</v>
       </c>
-      <c r="H61" s="71">
+      <c r="H61" s="58">
         <v>179420</v>
       </c>
       <c r="I61" s="22">
@@ -18409,7 +18409,7 @@
       <c r="J61" s="22">
         <v>28348</v>
       </c>
-      <c r="K61" s="71">
+      <c r="K61" s="58">
         <v>30775</v>
       </c>
       <c r="L61" s="22">
@@ -18433,10 +18433,10 @@
       <c r="R61" s="22">
         <v>2289</v>
       </c>
-      <c r="S61" s="70">
+      <c r="S61" s="57">
         <v>51451</v>
       </c>
-      <c r="T61" s="71">
+      <c r="T61" s="58">
         <v>713662</v>
       </c>
       <c r="U61" s="22">
@@ -18469,45 +18469,45 @@
       <c r="AD61" s="25">
         <v>17055</v>
       </c>
-      <c r="AE61" s="74">
+      <c r="AE61" s="61">
         <v>13175</v>
       </c>
-      <c r="AF61" s="70">
+      <c r="AF61" s="57">
         <v>679545</v>
       </c>
-      <c r="AG61" s="70">
+      <c r="AG61" s="57">
         <v>648</v>
       </c>
-      <c r="AH61" s="70">
+      <c r="AH61" s="57">
         <v>1072584</v>
       </c>
-      <c r="AI61" s="74">
+      <c r="AI61" s="61">
         <v>1715</v>
       </c>
-      <c r="AJ61" s="70">
+      <c r="AJ61" s="57">
         <v>3029</v>
       </c>
-      <c r="AK61" s="70">
+      <c r="AK61" s="57">
         <v>508</v>
       </c>
-      <c r="AL61" s="70">
+      <c r="AL61" s="57">
         <v>5252</v>
       </c>
       <c r="AM61" s="25">
         <v>0</v>
       </c>
-      <c r="AN61" s="75">
+      <c r="AN61" s="62">
         <v>2048578</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <v>2019</v>
       </c>
-      <c r="B62" s="70">
+      <c r="B62" s="57">
         <v>11285</v>
       </c>
-      <c r="C62" s="70">
+      <c r="C62" s="57">
         <v>31482</v>
       </c>
       <c r="D62" s="23">
@@ -18522,7 +18522,7 @@
       <c r="G62" s="22">
         <v>104985</v>
       </c>
-      <c r="H62" s="71">
+      <c r="H62" s="58">
         <v>179012</v>
       </c>
       <c r="I62" s="22">
@@ -18531,7 +18531,7 @@
       <c r="J62" s="22">
         <v>20557</v>
       </c>
-      <c r="K62" s="71">
+      <c r="K62" s="58">
         <v>23199</v>
       </c>
       <c r="L62" s="22">
@@ -18588,28 +18588,28 @@
       <c r="AC62" s="22">
         <v>78463</v>
       </c>
-      <c r="AD62" s="70">
+      <c r="AD62" s="57">
         <v>23220</v>
       </c>
-      <c r="AE62" s="74">
+      <c r="AE62" s="61">
         <v>14329</v>
       </c>
-      <c r="AF62" s="70">
+      <c r="AF62" s="57">
         <v>1347162</v>
       </c>
-      <c r="AG62" s="70">
+      <c r="AG62" s="57">
         <v>19538</v>
       </c>
-      <c r="AH62" s="70">
+      <c r="AH62" s="57">
         <v>1692431</v>
       </c>
-      <c r="AI62" s="74">
+      <c r="AI62" s="61">
         <v>1655</v>
       </c>
-      <c r="AJ62" s="70">
+      <c r="AJ62" s="57">
         <v>2955</v>
       </c>
-      <c r="AK62" s="70">
+      <c r="AK62" s="57">
         <v>436</v>
       </c>
       <c r="AL62" s="23">
@@ -18622,14 +18622,14 @@
         <v>3058493</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <v>2020</v>
       </c>
-      <c r="B63" s="70">
+      <c r="B63" s="57">
         <v>12089</v>
       </c>
-      <c r="C63" s="70">
+      <c r="C63" s="57">
         <v>37664</v>
       </c>
       <c r="D63" s="23">
@@ -18644,7 +18644,7 @@
       <c r="G63" s="22">
         <v>56794</v>
       </c>
-      <c r="H63" s="71">
+      <c r="H63" s="58">
         <v>106506</v>
       </c>
       <c r="I63" s="22">
@@ -18653,7 +18653,7 @@
       <c r="J63" s="22">
         <v>12175</v>
       </c>
-      <c r="K63" s="71">
+      <c r="K63" s="58">
         <v>14859</v>
       </c>
       <c r="L63" s="22">
@@ -18710,28 +18710,28 @@
       <c r="AC63" s="22">
         <v>23504</v>
       </c>
-      <c r="AD63" s="70">
+      <c r="AD63" s="57">
         <v>7893</v>
       </c>
-      <c r="AE63" s="74">
+      <c r="AE63" s="61">
         <v>11459</v>
       </c>
-      <c r="AF63" s="70">
+      <c r="AF63" s="57">
         <v>431759</v>
       </c>
-      <c r="AG63" s="70">
+      <c r="AG63" s="57">
         <v>6995</v>
       </c>
-      <c r="AH63" s="70">
+      <c r="AH63" s="57">
         <v>744490</v>
       </c>
-      <c r="AI63" s="74">
+      <c r="AI63" s="61">
         <v>1812</v>
       </c>
-      <c r="AJ63" s="70">
+      <c r="AJ63" s="57">
         <v>3186</v>
       </c>
-      <c r="AK63" s="70">
+      <c r="AK63" s="57">
         <v>406</v>
       </c>
       <c r="AL63" s="23">
@@ -18744,14 +18744,14 @@
         <v>1589259</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <v>2021</v>
       </c>
-      <c r="B64" s="70">
+      <c r="B64" s="57">
         <v>13070</v>
       </c>
-      <c r="C64" s="70">
+      <c r="C64" s="57">
         <v>37275</v>
       </c>
       <c r="D64" s="23">
@@ -18766,7 +18766,7 @@
       <c r="G64" s="22">
         <v>71816</v>
       </c>
-      <c r="H64" s="71">
+      <c r="H64" s="58">
         <v>133415</v>
       </c>
       <c r="I64" s="22">
@@ -18775,7 +18775,7 @@
       <c r="J64" s="22">
         <v>2809</v>
       </c>
-      <c r="K64" s="71">
+      <c r="K64" s="58">
         <v>5950</v>
       </c>
       <c r="L64" s="22">
@@ -18832,28 +18832,28 @@
       <c r="AC64" s="22">
         <v>13612</v>
       </c>
-      <c r="AD64" s="70">
+      <c r="AD64" s="57">
         <v>1440</v>
       </c>
-      <c r="AE64" s="74">
+      <c r="AE64" s="61">
         <v>2082</v>
       </c>
-      <c r="AF64" s="70">
+      <c r="AF64" s="57">
         <v>303655</v>
       </c>
-      <c r="AG64" s="70">
+      <c r="AG64" s="57">
         <v>3363</v>
       </c>
-      <c r="AH64" s="70">
+      <c r="AH64" s="57">
         <v>419219</v>
       </c>
-      <c r="AI64" s="74">
+      <c r="AI64" s="61">
         <v>3398</v>
       </c>
-      <c r="AJ64" s="70">
+      <c r="AJ64" s="57">
         <v>3288</v>
       </c>
-      <c r="AK64" s="70">
+      <c r="AK64" s="57">
         <v>135</v>
       </c>
       <c r="AL64" s="23">
@@ -18866,14 +18866,14 @@
         <v>1217008</v>
       </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A65" s="72">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A65" s="59">
         <v>2022</v>
       </c>
-      <c r="B65" s="73">
+      <c r="B65" s="60">
         <v>17415</v>
       </c>
-      <c r="C65" s="73">
+      <c r="C65" s="60">
         <v>28654</v>
       </c>
       <c r="D65" s="40">
@@ -18988,7 +18988,7 @@
         <v>2482762</v>
       </c>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A66" s="36">
         <v>2023</v>
       </c>
@@ -19110,7 +19110,7 @@
         <v>2482762</v>
       </c>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A67" s="36">
         <v>2024</v>
       </c>
@@ -19232,7 +19232,7 @@
         <v>2482762</v>
       </c>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A68" s="36">
         <v>2025</v>
       </c>
@@ -19354,7 +19354,7 @@
         <v>2482762</v>
       </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A69" s="36">
         <v>2026</v>
       </c>
@@ -19476,7 +19476,7 @@
         <v>2482762</v>
       </c>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A70" s="36">
         <v>2027</v>
       </c>
@@ -19598,7 +19598,7 @@
         <v>2482762</v>
       </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A71" s="36">
         <v>2028</v>
       </c>
@@ -19720,7 +19720,7 @@
         <v>2482762</v>
       </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A72" s="36">
         <v>2029</v>
       </c>
@@ -19842,7 +19842,7 @@
         <v>2482762</v>
       </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A73" s="36">
         <v>2030</v>
       </c>
@@ -19964,7 +19964,7 @@
         <v>2482762</v>
       </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A74" s="36">
         <v>2031</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>2482762</v>
       </c>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A75" s="36">
         <v>2032</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>2482762</v>
       </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A76" s="36">
         <v>2033</v>
       </c>
@@ -20330,7 +20330,7 @@
         <v>2482762</v>
       </c>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A77" s="36">
         <v>2034</v>
       </c>
@@ -20452,7 +20452,7 @@
         <v>2482762</v>
       </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A78" s="41">
         <v>2035</v>
       </c>
@@ -20574,7 +20574,7 @@
         <v>2482762</v>
       </c>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A79" s="31" t="s">
         <v>20</v>
       </c>
@@ -20696,7 +20696,7 @@
         <v>145283706</v>
       </c>
     </row>
-    <row r="80" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="50" t="s">
         <v>115</v>
       </c>
@@ -20711,12 +20711,12 @@
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="52" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="51" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" s="51" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="52" t="s">
         <v>114</v>
       </c>
